--- a/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:02:29+00:00</t>
+    <t>2024-02-21T15:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:25+00:00</t>
+    <t>2024-02-21T15:17:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:17:56+00:00</t>
+    <t>2024-02-21T15:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
+++ b/ig/ft-3-add-narative/StructureDefinition-cds-organization-interne.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T15:23:52+00:00</t>
+    <t>2024-02-21T15:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
